--- a/20230215_VXI-11 通信の概要/305_RPC_8_THE_RPC_MESSAGE_PROTOCOL.xlsx
+++ b/20230215_VXI-11 通信の概要/305_RPC_8_THE_RPC_MESSAGE_PROTOCOL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20230215_VXI-11 通信の概要\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAB64CF-90BB-4BC3-986F-BDA69E3E56A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98756749-599C-4283-AA61-4613353F1DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EDF45EBB-E54E-4B5B-AED4-E73175C7B73C}"/>
   </bookViews>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MSG_TYPE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CALL</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -66,14 +62,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>REPLY_STAT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ACCEPT_STAT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SUCCESS</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -119,14 +107,6 @@
   </si>
   <si>
     <t>AUTH_TOOWEAK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AUTH_STAT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>REJECT_STAT</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -218,6 +198,26 @@
   </si>
   <si>
     <t>セキュリティ上の理由で拒否された</t>
+  </si>
+  <si>
+    <t>msg_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reply_stat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>accept_stat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reject_stat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>auth_stat</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -287,7 +287,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -295,12 +295,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -629,7 +623,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -643,101 +637,83 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="4"/>
+        <v>31</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B3" s="2">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="4"/>
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B8" s="2">
         <v>0</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="4"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B9" s="2">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>34</v>
+      <c r="F12" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
@@ -745,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>22</v>
+        <v>32</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
@@ -759,13 +735,13 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>23</v>
+        <v>33</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
@@ -773,13 +749,13 @@
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>24</v>
+        <v>34</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
@@ -787,13 +763,13 @@
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>25</v>
+        <v>35</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
@@ -801,40 +777,35 @@
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B20" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>34</v>
+      <c r="F20" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
@@ -842,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>27</v>
+        <v>37</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
@@ -856,40 +827,35 @@
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B25" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>34</v>
+      <c r="F25" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
@@ -897,13 +863,13 @@
         <v>1</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
@@ -911,13 +877,13 @@
         <v>2</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
@@ -925,13 +891,13 @@
         <v>3</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>31</v>
+        <v>41</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
@@ -939,13 +905,13 @@
         <v>4</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>32</v>
+        <v>42</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
@@ -953,13 +919,13 @@
         <v>5</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>33</v>
+        <v>43</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/20230215_VXI-11 通信の概要/305_RPC_8_THE_RPC_MESSAGE_PROTOCOL.xlsx
+++ b/20230215_VXI-11 通信の概要/305_RPC_8_THE_RPC_MESSAGE_PROTOCOL.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20230215_VXI-11 通信の概要\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98756749-599C-4283-AA61-4613353F1DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EC55B3-8D44-4D32-99B9-45EDD65F51FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EDF45EBB-E54E-4B5B-AED4-E73175C7B73C}"/>
+    <workbookView xWindow="150" yWindow="0" windowWidth="19950" windowHeight="15585" xr2:uid="{EDF45EBB-E54E-4B5B-AED4-E73175C7B73C}"/>
   </bookViews>
   <sheets>
-    <sheet name="エラー番号一覧" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">エラー番号一覧!$A$1:$G$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -74,10 +74,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MRPC_UNAVAIL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>GARBAGE_ARGS</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -217,6 +213,10 @@
   </si>
   <si>
     <t>auth_stat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RPC_UNAVAIL</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -616,14 +616,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A9169A-E4D9-4598-98E9-DF7D7A23CE14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF44743-5C5B-407C-886D-BEF847D4A1DE}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M26" activeCellId="1" sqref="F20 M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -637,15 +637,15 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -666,17 +666,17 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
@@ -697,23 +697,23 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
@@ -724,10 +724,10 @@
         <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
@@ -738,10 +738,10 @@
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
@@ -752,10 +752,10 @@
         <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
@@ -763,13 +763,13 @@
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
@@ -777,18 +777,18 @@
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -796,16 +796,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
@@ -827,18 +827,18 @@
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -846,16 +846,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
@@ -863,13 +863,13 @@
         <v>1</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
@@ -877,13 +877,13 @@
         <v>2</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
@@ -891,13 +891,13 @@
         <v>3</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
@@ -905,13 +905,13 @@
         <v>4</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
@@ -919,13 +919,13 @@
         <v>5</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/20230215_VXI-11 通信の概要/305_RPC_8_THE_RPC_MESSAGE_PROTOCOL.xlsx
+++ b/20230215_VXI-11 通信の概要/305_RPC_8_THE_RPC_MESSAGE_PROTOCOL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20230215_VXI-11 通信の概要\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EC55B3-8D44-4D32-99B9-45EDD65F51FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E353A6-7463-4C2D-8486-5851418E710F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="0" windowWidth="19950" windowHeight="15585" xr2:uid="{EDF45EBB-E54E-4B5B-AED4-E73175C7B73C}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="11235" windowHeight="11640" xr2:uid="{EDF45EBB-E54E-4B5B-AED4-E73175C7B73C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -146,13 +146,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>番号</t>
-    <rPh sb="0" eb="2">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>定数名</t>
     <rPh sb="0" eb="3">
       <t>テイスウメイ</t>
@@ -217,6 +210,13 @@
   </si>
   <si>
     <t>RPC_UNAVAIL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -623,7 +623,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M26" activeCellId="1" sqref="F20 M26"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -637,15 +637,15 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -666,17 +666,17 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
@@ -697,17 +697,17 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>16</v>
@@ -738,7 +738,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>17</v>
@@ -752,7 +752,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>18</v>
@@ -763,10 +763,10 @@
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>19</v>
@@ -780,7 +780,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>20</v>
@@ -788,7 +788,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -796,10 +796,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>0</v>
@@ -816,7 +816,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>21</v>
@@ -830,7 +830,7 @@
         <v>10</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>22</v>
@@ -838,7 +838,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -846,10 +846,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>0</v>
@@ -866,7 +866,7 @@
         <v>11</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>23</v>
@@ -880,7 +880,7 @@
         <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>24</v>
@@ -894,7 +894,7 @@
         <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>25</v>
@@ -908,7 +908,7 @@
         <v>14</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>26</v>
@@ -922,7 +922,7 @@
         <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>27</v>
